--- a/hex文件/中科瑞泰电子软件版本信息.xlsx
+++ b/hex文件/中科瑞泰电子软件版本信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="机载管理单元" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="98">
   <si>
     <t>HEX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,6 +383,28 @@
   </si>
   <si>
     <t>MulThrowOneServo-V03-03-180509</t>
+  </si>
+  <si>
+    <t>StrongLight-V01-02-180509</t>
+  </si>
+  <si>
+    <t>支持获取设备版本信息；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疝气灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-Q30TIR-V01-00-180518</t>
+  </si>
+  <si>
+    <t>品灵双光吊舱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -413,7 +435,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,6 +460,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -451,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -476,6 +504,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -972,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1090,7 +1121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1199,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1348,10 +1379,25 @@
         <v>7</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1521,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1552,25 +1598,21 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1578,22 +1620,57 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>50</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A7:E7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/hex文件/中科瑞泰电子软件版本信息.xlsx
+++ b/hex文件/中科瑞泰电子软件版本信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="机载管理单元" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="102">
   <si>
     <t>HEX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -404,6 +404,22 @@
   </si>
   <si>
     <t>品灵双光吊舱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持品灵吊舱Q30TIR：
+俯仰航向轴控制、轴向速度设置、可见光变焦、红外颜色切换、可见光拍照录像、物体识别跟踪、画中画切换；
+支持获取设备版本信息；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrongLight-V02-01-180509</t>
+  </si>
+  <si>
+    <t>StrongLight-V02-00-180319</t>
+  </si>
+  <si>
+    <t>init</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -815,7 +831,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1003,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1122,7 +1138,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1232,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1388,9 +1404,18 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>96</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1435,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1527,7 +1552,7 @@
       <c r="C8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1567,10 +1592,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1653,6 +1678,9 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
@@ -1662,6 +1690,28 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1679,7 +1729,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/hex文件/中科瑞泰电子软件版本信息.xlsx
+++ b/hex文件/中科瑞泰电子软件版本信息.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="109">
   <si>
     <t>HEX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,19 +407,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>StrongLight-V02-01-180509</t>
+  </si>
+  <si>
+    <t>StrongLight-V02-00-180319</t>
+  </si>
+  <si>
+    <t>init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThrowA9_V01-01-180523</t>
+  </si>
+  <si>
+    <t>Camera_HW04-V02-02_HONGHU-180509</t>
+  </si>
+  <si>
     <t>支持品灵吊舱Q30TIR：
 俯仰航向轴控制、轴向速度设置、可见光变焦、红外颜色切换、可见光拍照录像、物体识别跟踪、画中画切换；
 支持获取设备版本信息；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>StrongLight-V02-01-180509</t>
-  </si>
-  <si>
-    <t>StrongLight-V02-00-180319</t>
-  </si>
-  <si>
-    <t>init</t>
+    <t>支持获取设备版本信息；</t>
+  </si>
+  <si>
+    <t>SingleLight_HW04-V02-01_YH-180515</t>
+  </si>
+  <si>
+    <t>Camera_HW04-V02-01-SKYEYES20E-180509</t>
+  </si>
+  <si>
+    <t>钟山苑20倍单光吊舱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持：
+俯仰航向轴控制、可见光变焦、可见光拍照录像；
+支持获取设备版本信息；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1246,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1331,33 +1356,34 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>56</v>
@@ -1365,51 +1391,55 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>98</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>56</v>
@@ -1418,11 +1448,58 @@
         <v>83</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1432,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1577,6 +1654,20 @@
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1595,7 +1686,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1693,10 +1784,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
         <v>100</v>
-      </c>
-      <c r="B8" t="s">
-        <v>101</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>83</v>
@@ -1704,7 +1795,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
         <v>93</v>

--- a/hex文件/中科瑞泰电子软件版本信息.xlsx
+++ b/hex文件/中科瑞泰电子软件版本信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="机载管理单元" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="111">
   <si>
     <t>HEX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -445,6 +445,13 @@
     <t>支持：
 俯仰航向轴控制、可见光变焦、可见光拍照录像；
 支持获取设备版本信息；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainBoard-V06-02-180523</t>
+  </si>
+  <si>
+    <t>增加避障限速模式的宏开关；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -853,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1030,6 +1037,23 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1273,7 +1297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>

--- a/hex文件/中科瑞泰电子软件版本信息.xlsx
+++ b/hex文件/中科瑞泰电子软件版本信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="机载管理单元" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="113">
   <si>
     <t>HEX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,9 +379,6 @@
     <t>megaphone-V03-02-180509</t>
   </si>
   <si>
-    <t>GasDetectModuleII-V01-01-180509</t>
-  </si>
-  <si>
     <t>MulThrowOneServo-V03-03-180509</t>
   </si>
   <si>
@@ -452,6 +449,18 @@
   </si>
   <si>
     <t>增加避障限速模式的宏开关；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GasDetectModuleII-V01-01-180509</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GasDetectModuleII-V01-02-180821</t>
+  </si>
+  <si>
+    <t>解决传感器初始化读取失效的问题，
+解决方法：延长读取延时至300ms；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1042,10 +1051,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>85</v>
@@ -1184,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1275,7 +1284,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>84</v>
@@ -1284,6 +1293,20 @@
         <v>56</v>
       </c>
       <c r="E6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1381,10 +1404,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>56</v>
@@ -1460,10 +1483,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>56</v>
@@ -1474,7 +1497,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1483,10 +1506,10 @@
     </row>
     <row r="14" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>56</v>
@@ -1497,7 +1520,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1506,10 +1529,10 @@
     </row>
     <row r="16" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>56</v>
@@ -1645,7 +1668,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>84</v>
@@ -1682,7 +1705,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>84</v>
@@ -1740,7 +1763,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1788,10 +1811,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
         <v>92</v>
-      </c>
-      <c r="B6" t="s">
-        <v>93</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>83</v>
@@ -1799,7 +1822,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1808,10 +1831,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
         <v>99</v>
-      </c>
-      <c r="B8" t="s">
-        <v>100</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>83</v>
@@ -1819,10 +1842,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>83</v>

--- a/hex文件/中科瑞泰电子软件版本信息.xlsx
+++ b/hex文件/中科瑞泰电子软件版本信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="机载管理单元" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="131">
   <si>
     <t>HEX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -420,55 +420,127 @@
     <t>Camera_HW04-V02-02_HONGHU-180509</t>
   </si>
   <si>
-    <t>支持品灵吊舱Q30TIR：
+    <t>SingleLight_HW04-V02-01_YH-180515</t>
+  </si>
+  <si>
+    <t>Camera_HW04-V02-01-SKYEYES20E-180509</t>
+  </si>
+  <si>
+    <t>钟山苑20倍单光吊舱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainBoard-V06-02-180523</t>
+  </si>
+  <si>
+    <t>增加避障限速模式的宏开关；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GasDetectModuleII-V01-01-180509</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GasDetectModuleII-V01-02-180821</t>
+  </si>
+  <si>
+    <t>解决传感器初始化读取失效的问题，
+解决方法：延长读取延时至300ms；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OMU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-SP</t>
+  </si>
+  <si>
+    <t>保时安气体探测器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国瑞毒气模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无hex文件，集成在管理板上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-GD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-GDBSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制接口模式：PWM
+支持品灵吊舱Q30TIR：
 俯仰航向轴控制、轴向速度设置、可见光变焦、红外颜色切换、可见光拍照录像、物体识别跟踪、画中画切换；
 支持获取设备版本信息；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支持获取设备版本信息；</t>
-  </si>
-  <si>
-    <t>SingleLight_HW04-V02-01_YH-180515</t>
-  </si>
-  <si>
-    <t>Camera_HW04-V02-01-SKYEYES20E-180509</t>
-  </si>
-  <si>
-    <t>钟山苑20倍单光吊舱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持：
+    <t>控制接口模式：SBUS
+支持：
 俯仰航向轴控制、可见光变焦、可见光拍照录像；
 支持获取设备版本信息；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MainBoard-V06-02-180523</t>
-  </si>
-  <si>
-    <t>增加避障限速模式的宏开关；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GasDetectModuleII-V01-01-180509</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GasDetectModuleII-V01-02-180821</t>
-  </si>
-  <si>
-    <t>解决传感器初始化读取失效的问题，
-解决方法：延长读取延时至300ms；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>控制接口模式：SBUS；
+支持获取设备版本信息；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制接口模式：SBUS
+支持获取设备版本信息；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-TI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-NEO1N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-Q30TIR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-SKY20E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-PT</t>
+  </si>
+  <si>
+    <t>M-BIGPT</t>
+  </si>
+  <si>
+    <t>M-SL</t>
+  </si>
+  <si>
+    <t>M-SLLED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,8 +563,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,12 +595,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -536,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -551,18 +623,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -869,11 +956,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -881,9 +966,10 @@
     <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="6" width="51.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -894,7 +980,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>9</v>
@@ -902,8 +988,11 @@
       <c r="F1" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -916,8 +1005,9 @@
         <v>64</v>
       </c>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -932,8 +1022,9 @@
         <v>64</v>
       </c>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
@@ -948,8 +1039,9 @@
         <v>64</v>
       </c>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
@@ -964,8 +1056,9 @@
         <v>64</v>
       </c>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -980,8 +1073,9 @@
         <v>60</v>
       </c>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -996,8 +1090,9 @@
         <v>10</v>
       </c>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="159.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="159.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1014,8 +1109,9 @@
       <c r="F8" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>82</v>
       </c>
@@ -1031,8 +1127,9 @@
       <c r="F9" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -1048,13 +1145,16 @@
       <c r="F10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G10" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>85</v>
@@ -1064,6 +1164,9 @@
       </c>
       <c r="F11" t="s">
         <v>87</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1075,11 +1178,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1087,9 +1188,10 @@
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="30.625" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1105,8 +1207,11 @@
       <c r="E1" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1114,8 +1219,9 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1127,8 +1233,9 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1142,48 +1249,71 @@
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>89</v>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
         <v>83</v>
       </c>
+      <c r="F8" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1193,11 +1323,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1206,9 +1334,10 @@
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="30.625" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1224,8 +1353,11 @@
       <c r="E1" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1237,8 +1369,9 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1252,8 +1385,9 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1267,50 +1401,108 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F9" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="F10" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F14" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1318,11 +1510,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1331,9 +1521,10 @@
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="30.625" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1349,196 +1540,224 @@
       <c r="E1" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="F1" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="B16" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>83</v>
+      <c r="F16" s="11" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1556,11 +1775,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1569,9 +1786,10 @@
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="30.625" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1587,17 +1805,21 @@
       <c r="E1" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="F1" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -1609,8 +1831,9 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1622,8 +1845,9 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1637,8 +1861,9 @@
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1651,8 +1876,9 @@
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1665,8 +1891,9 @@
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -1679,17 +1906,21 @@
       <c r="E8" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+      <c r="F8" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -1702,8 +1933,9 @@
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -1715,6 +1947,9 @@
       </c>
       <c r="E11" s="2" t="s">
         <v>83</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1730,11 +1965,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1742,9 +1975,10 @@
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="30.625" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1760,17 +1994,21 @@
       <c r="E1" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="F1" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -1782,8 +2020,9 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -1795,8 +2034,9 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -1808,8 +2048,9 @@
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1819,17 +2060,21 @@
       <c r="E6" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
+      <c r="F6" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -1839,8 +2084,9 @@
       <c r="E8" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -1850,6 +2096,15 @@
       <c r="E9" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="F9" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1864,11 +2119,92 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="30.75" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="30.625" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F11" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1892,59 +2228,6 @@
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="30.75" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="30.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
